--- a/techniqo/data_new_ticker/FRETAIL.xlsx
+++ b/techniqo/data_new_ticker/FRETAIL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35456,6 +35456,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1003" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>96.55</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>103.85</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>9090438</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1004" t="n">
+        <v>103.85</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>101.05</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>102.75</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>3168309</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/FRETAIL.xlsx
+++ b/techniqo/data_new_ticker/FRETAIL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1004"/>
+  <dimension ref="A1:G1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35506,6 +35506,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1005" t="n">
+        <v>101</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>102</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>3459675</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1006" t="n">
+        <v>101.55</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>101.85</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>99</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>3195539</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
